--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F353834-6657-4113-B3B4-70F5A566BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FEF0E-0B5C-4541-A3E1-3C5A5B8E566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>Month</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>Ăn sáng</t>
   </si>
 </sst>
 </file>
@@ -891,7 +894,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2203A1-87D1-4DFF-B7F6-13FED3BA60DD}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,35 +1721,23 @@
       <c r="A5" s="21">
         <v>45717</v>
       </c>
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
-        <v>2</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="19">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -1763,11 +1754,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="19">
-        <f t="shared" ref="H6" si="6">B6+D6+F6</f>
+        <f t="shared" ref="H6:H8" si="6">B6+D6+F6</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f t="shared" ref="I6" si="7">C6+E6+G6</f>
+        <f t="shared" ref="I6:I8" si="7">C6+E6+G6</f>
         <v>0</v>
       </c>
       <c r="J6" s="19">
@@ -1783,34 +1774,34 @@
         <v>45778</v>
       </c>
       <c r="B7" s="18">
-        <v>5000</v>
+        <v>3965.5414834426306</v>
       </c>
       <c r="C7" s="18">
-        <v>3000</v>
+        <v>3232.7624871043358</v>
       </c>
       <c r="D7" s="18">
-        <v>5000</v>
+        <v>228.52846890824256</v>
       </c>
       <c r="E7" s="18">
-        <v>3000</v>
+        <v>169.92546663595715</v>
       </c>
       <c r="F7" s="18">
-        <v>5000</v>
+        <v>1803.3318551956697</v>
       </c>
       <c r="G7" s="18">
-        <v>3000</v>
+        <v>332.60501623843197</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" ref="H7" si="9">B7+D7+F7</f>
-        <v>15000</v>
+        <f t="shared" si="6"/>
+        <v>5997.4018075465428</v>
       </c>
       <c r="I7" s="19">
-        <f t="shared" ref="I7" si="10">C7+E7+G7</f>
-        <v>9000</v>
+        <f t="shared" si="7"/>
+        <v>3735.2929699787246</v>
       </c>
       <c r="J7" s="19">
-        <f t="shared" ref="J7" si="11">ABS(H7-I7)</f>
-        <v>6000</v>
+        <f t="shared" ref="J7" si="9">ABS(H7-I7)</f>
+        <v>2262.1088375678182</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -1820,23 +1811,35 @@
       <c r="A8" s="21">
         <v>45809</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="18">
+        <v>3965.5414834426306</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3247.6868306739998</v>
+      </c>
+      <c r="D8" s="18">
+        <v>228.52846890824256</v>
+      </c>
+      <c r="E8" s="18">
+        <v>205.44675495108569</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1803.3318551956697</v>
+      </c>
+      <c r="G8" s="18">
+        <v>346.75275369474275</v>
+      </c>
       <c r="H8" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5997.4018075465428</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3799.886339319828</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2197.5154682267148</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -2009,15 +2012,15 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="19">
-        <f t="shared" ref="H15:H17" si="12">B15+D15+F15</f>
+        <f t="shared" ref="H15:H17" si="10">B15+D15+F15</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" ref="I15:I17" si="13">C15+E15+G15</f>
+        <f t="shared" ref="I15:I17" si="11">C15+E15+G15</f>
         <v>0</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" ref="J15:J17" si="14">ABS(H15-I15)</f>
+        <f t="shared" ref="J15:J17" si="12">ABS(H15-I15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -2035,15 +2038,15 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K16" s="3">
@@ -2061,15 +2064,15 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K17" s="3">
@@ -2269,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB31606-611C-43AE-BE22-15419585C40A}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P14"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,10 +2294,14 @@
     <col min="12" max="13" width="8.88671875" style="2"/>
     <col min="14" max="14" width="37.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2343,8 +2350,17 @@
       <c r="P1" s="32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2373,8 +2389,13 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2403,8 +2424,13 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2433,8 +2459,13 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="32"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2463,8 +2494,13 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="32"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2493,8 +2529,13 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2523,8 +2564,13 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3">
+        <v>6</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2557,8 +2603,17 @@
         <v>30</v>
       </c>
       <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2638,7 @@
       <c r="L9" s="32"/>
       <c r="P9" s="32"/>
     </row>
-    <row r="10" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -2616,7 +2671,7 @@
       <c r="L10" s="32"/>
       <c r="P10" s="32"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -2640,7 +2695,7 @@
       <c r="L11" s="32"/>
       <c r="P11" s="32"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D12" s="32"/>
       <c r="E12" s="3" t="s">
         <v>46</v>
@@ -2655,19 +2710,19 @@
       <c r="L12" s="32"/>
       <c r="P12" s="32"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="32"/>
       <c r="H13" s="32"/>
       <c r="L13" s="32"/>
       <c r="P13" s="32"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="32"/>
       <c r="H14" s="32"/>
       <c r="L14" s="32"/>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
     </row>
   </sheetData>
@@ -2685,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F9EA3-B910-41F2-9F51-C92E310F96CA}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,9 +2754,10 @@
     <col min="7" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.21875" bestFit="1" customWidth="1"/>
@@ -2793,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2804,7 +2860,7 @@
         <v>90</v>
       </c>
       <c r="D2" s="13">
-        <v>45672</v>
+        <v>45723</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2812,20 +2868,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="U2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -2840,18 +2908,14 @@
       <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="14">
-        <v>45673</v>
-      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2880,18 +2944,14 @@
       <c r="C4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13">
-        <v>45674</v>
-      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2920,9 +2980,7 @@
       <c r="C5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="14">
-        <v>45820</v>
-      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3091,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D96FA9-FE8A-4589-9A3C-8E16C57A76C1}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FEF0E-0B5C-4541-A3E1-3C5A5B8E566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA4CD4-6BF7-44B0-8CE3-F1BAA22C448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>Month</t>
   </si>
@@ -323,6 +323,15 @@
   </si>
   <si>
     <t>Ăn sáng</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>17/01/2026</t>
+  </si>
+  <si>
+    <t>16/01/2025</t>
   </si>
 </sst>
 </file>
@@ -2740,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F9EA3-B910-41F2-9F51-C92E310F96CA}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2758,7 @@
     <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -3149,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D96FA9-FE8A-4589-9A3C-8E16C57A76C1}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,7 +3167,7 @@
     <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.109375" bestFit="1" customWidth="1"/>
@@ -3250,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3260,8 +3269,8 @@
       <c r="C2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="13">
-        <v>45672</v>
+      <c r="D2" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3297,8 +3306,8 @@
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="14">
-        <v>45673</v>
+      <c r="D3" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3337,8 +3346,8 @@
       <c r="C4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13">
-        <v>45674</v>
+      <c r="D4" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3377,9 +3386,7 @@
       <c r="C5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="14">
-        <v>45820</v>
-      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3531,6 +3538,7 @@
       <c r="AB9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA4CD4-6BF7-44B0-8CE3-F1BAA22C448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA80DEB-F3D3-44D0-B3B0-2F8F5D4691DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2203A1-87D1-4DFF-B7F6-13FED3BA60DD}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,23 +1678,35 @@
       <c r="A3" s="21">
         <v>45658</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="18">
+        <v>3964.7119659550103</v>
+      </c>
+      <c r="C3" s="18">
+        <v>3294.4704682223146</v>
+      </c>
+      <c r="D3" s="18">
+        <v>223.82786981172811</v>
+      </c>
+      <c r="E3" s="18">
+        <v>189.59343497838174</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1799.0920991478331</v>
+      </c>
+      <c r="G3" s="18">
+        <v>390.512819908057</v>
+      </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3" si="0">B3+D3+F3</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H14" si="0">B3+D3+F3</f>
+        <v>5987.6319349145715</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3" si="1">C3+E3+G3</f>
-        <v>0</v>
+        <f t="shared" ref="I3:I14" si="1">C3+E3+G3</f>
+        <v>3874.576723108753</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" ref="J3" si="2">ABS(H3-I3)</f>
-        <v>0</v>
+        <v>2113.0552118058185</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -1711,15 +1723,15 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H14" si="3">B4+D4+F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f t="shared" ref="I4:I14" si="4">C4+E4+G4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="19">
-        <f t="shared" ref="J4:J14" si="5">ABS(H4-I4)</f>
+        <f t="shared" ref="J4:J14" si="3">ABS(H4-I4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
@@ -1737,15 +1749,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K5" s="3">
@@ -1763,15 +1775,15 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="19">
-        <f t="shared" ref="H6:H8" si="6">B6+D6+F6</f>
+        <f t="shared" ref="H6:H8" si="4">B6+D6+F6</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f t="shared" ref="I6:I8" si="7">C6+E6+G6</f>
+        <f t="shared" ref="I6:I8" si="5">C6+E6+G6</f>
         <v>0</v>
       </c>
       <c r="J6" s="19">
-        <f t="shared" ref="J6" si="8">ABS(H6-I6)</f>
+        <f t="shared" ref="J6" si="6">ABS(H6-I6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="3">
@@ -1801,15 +1813,15 @@
         <v>332.60501623843197</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5997.4018075465428</v>
       </c>
       <c r="I7" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3735.2929699787246</v>
       </c>
       <c r="J7" s="19">
-        <f t="shared" ref="J7" si="9">ABS(H7-I7)</f>
+        <f t="shared" ref="J7" si="7">ABS(H7-I7)</f>
         <v>2262.1088375678182</v>
       </c>
       <c r="K7" s="3">
@@ -1839,15 +1851,15 @@
         <v>346.75275369474275</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5997.4018075465428</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3799.886339319828</v>
       </c>
       <c r="J8" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2197.5154682267148</v>
       </c>
       <c r="K8" s="3">
@@ -1865,15 +1877,15 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
@@ -1891,15 +1903,15 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="3">
@@ -1917,15 +1929,15 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="3">
@@ -1943,15 +1955,15 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K12" s="3">
@@ -1969,15 +1981,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -1995,15 +2007,15 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K14" s="3">
@@ -2021,15 +2033,15 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="19">
-        <f t="shared" ref="H15:H17" si="10">B15+D15+F15</f>
+        <f t="shared" ref="H15:H17" si="8">B15+D15+F15</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" ref="I15:I17" si="11">C15+E15+G15</f>
+        <f t="shared" ref="I15:I17" si="9">C15+E15+G15</f>
         <v>0</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" ref="J15:J17" si="12">ABS(H15-I15)</f>
+        <f t="shared" ref="J15:J17" si="10">ABS(H15-I15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -2047,15 +2059,15 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K16" s="3">
@@ -2073,15 +2085,15 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K17" s="3">
@@ -3158,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D96FA9-FE8A-4589-9A3C-8E16C57A76C1}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA80DEB-F3D3-44D0-B3B0-2F8F5D4691DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E00C0B-79AE-4E47-8D34-CACE61869A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -325,13 +325,13 @@
     <t>Ăn sáng</t>
   </si>
   <si>
-    <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>17/01/2026</t>
-  </si>
-  <si>
-    <t>16/01/2025</t>
+    <t>15/02/2025</t>
+  </si>
+  <si>
+    <t>16/02/2025</t>
+  </si>
+  <si>
+    <t>17/02/2026</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2203A1-87D1-4DFF-B7F6-13FED3BA60DD}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -3170,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D96FA9-FE8A-4589-9A3C-8E16C57A76C1}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,7 +3319,7 @@
         <v>86</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3359,7 +3359,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E00C0B-79AE-4E47-8D34-CACE61869A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8077FB-BC4F-4107-BC55-26DF5EA2AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>Month</t>
   </si>
@@ -323,15 +323,6 @@
   </si>
   <si>
     <t>Ăn sáng</t>
-  </si>
-  <si>
-    <t>15/02/2025</t>
-  </si>
-  <si>
-    <t>16/02/2025</t>
-  </si>
-  <si>
-    <t>17/02/2026</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +2872,7 @@
         <v>90</v>
       </c>
       <c r="D2" s="13">
-        <v>45723</v>
+        <v>45841</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3171,7 +3162,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3179,7 +3170,7 @@
     <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.109375" bestFit="1" customWidth="1"/>
@@ -3281,8 +3272,8 @@
       <c r="C2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>93</v>
+      <c r="D2" s="13">
+        <v>45841</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3318,8 +3309,8 @@
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>94</v>
+      <c r="D3" s="14">
+        <v>45703</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3358,9 +3349,7 @@
       <c r="C4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3552,5 +3541,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8077FB-BC4F-4107-BC55-26DF5EA2AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FC596-4697-4DD2-A9DE-B476B9F235ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3272,8 +3272,8 @@
       <c r="C2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="13">
-        <v>45841</v>
+      <c r="D2" s="14">
+        <v>45703</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3310,7 +3310,7 @@
         <v>86</v>
       </c>
       <c r="D3" s="14">
-        <v>45703</v>
+        <v>45704</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3349,7 +3349,9 @@
       <c r="C4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14">
+        <v>45705</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FC596-4697-4DD2-A9DE-B476B9F235ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D9118D-0F3A-4C8B-B6A8-BB12C1CBF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D9118D-0F3A-4C8B-B6A8-BB12C1CBF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F467C-12B4-4822-88FB-2D2A23C4A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>Month</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>Ăn sáng</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>E12</t>
   </si>
 </sst>
 </file>
@@ -2752,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F9EA3-B910-41F2-9F51-C92E310F96CA}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2990,7 +2996,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="1"/>
@@ -3161,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D96FA9-FE8A-4589-9A3C-8E16C57A76C1}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,8 +3424,12 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="16"/>
       <c r="D6" s="14"/>
       <c r="E6" s="1"/>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F467C-12B4-4822-88FB-2D2A23C4A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62097C9-29F1-4597-B4BA-FC0B537E07FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14FA5A7-E2B7-4031-979E-EA1B510988C7}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,21 +1352,15 @@
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
-        <v>-2329.5088578733521</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.4</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="K10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1385,21 +1379,15 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
-        <v>-2359.3923781816829</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1418,21 +1406,15 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
-        <v>-2258.6507626685775</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
-        <v>9.4E-2</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.1</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="K12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1451,21 +1433,15 @@
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
-        <v>-2314.4136508954848</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.16300000000000001</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="3">
-        <v>0.15</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="K13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1484,21 +1460,15 @@
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>-2156.1717230838594</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.26700000000000002</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="K14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1521,15 +1491,11 @@
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.1</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.1</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="K15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F9EA3-B910-41F2-9F51-C92E310F96CA}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62097C9-29F1-4597-B4BA-FC0B537E07FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A3C62-C9C0-44FF-B4B9-55CBB1868418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>Month</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Estimated in Ton</t>
-  </si>
-  <si>
-    <t>Food waste (Kg/guest)</t>
   </si>
   <si>
     <t>Number of convenient  raincoat used</t>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>E12</t>
+  </si>
+  <si>
+    <t>Food waste (Kg/month)</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +378,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,9 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,9 +529,6 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -536,22 +542,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -897,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14FA5A7-E2B7-4031-979E-EA1B510988C7}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,377 +933,393 @@
     <col min="5" max="5" width="11.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="4.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="44" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="9" width="11.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="44" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="2"/>
+    <col min="19" max="19" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="K2" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="P2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-    </row>
-    <row r="3" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="Q2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+    </row>
+    <row r="3" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="23" t="s">
+      <c r="Q3" s="32"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="24"/>
-    </row>
-    <row r="4" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="28"/>
+    </row>
+    <row r="4" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="22">
         <v>-2113.0552120000002</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="22">
         <v>0.44</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="22">
+        <v>357</v>
+      </c>
+      <c r="J4" s="22">
+        <v>86.4</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>357</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>109</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>0.30499999999999999</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>53</v>
+      <c r="Q4" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="22">
         <v>-2242.9506476124357</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="22">
         <v>0.307</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="22">
+        <v>306</v>
+      </c>
+      <c r="J5" s="22">
+        <v>83.84</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>306</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>22</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="3">
-        <v>5848.9849999999997</v>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="T5" s="3">
         <v>5848.9849999999997</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3">
+      <c r="U5" s="3">
+        <v>5848.9849999999997</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3">
         <v>130</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>1830.1</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Y5" s="3">
         <v>1335.51</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="22">
         <v>-2122.4908089576847</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="22">
         <v>0.189</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="22">
+        <v>482</v>
+      </c>
+      <c r="J6" s="22">
+        <v>133.12</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>482</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="R6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="3">
         <v>184.32899999999998</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>44.628999999999998</v>
       </c>
-      <c r="U6" s="3">
+      <c r="V6" s="3">
         <v>139.69999999999999</v>
       </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
       <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
         <v>0.9</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Y6" s="3">
         <v>150.255</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>27.562000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="22">
         <v>-2203.7536646846529</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="22">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="I7" s="22">
+        <v>275</v>
+      </c>
+      <c r="J7" s="22">
+        <v>58.88</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>275</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="3">
-        <v>349.245</v>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="T7" s="3">
         <v>349.245</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
+      <c r="U7" s="3">
+        <v>349.245</v>
+      </c>
+      <c r="V7" s="3"/>
       <c r="W7" s="3">
         <v>0</v>
       </c>
       <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
         <v>0.92</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <v>334.34500000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="22">
         <v>-2262.1088375678178</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="22">
         <v>0.13200000000000001</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="I8" s="22">
+        <v>144</v>
+      </c>
+      <c r="J8" s="22">
+        <v>31.68</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>144</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" s="3">
-        <v>8.4</v>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="T8" s="3">
         <v>8.4</v>
       </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
+      <c r="U8" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="V8" s="3"/>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -1290,227 +1327,239 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="22">
         <v>-2197.5154682267148</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="22">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="22">
+        <v>144</v>
+      </c>
+      <c r="J9" s="22">
+        <v>13.120000000000001</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>144</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="Q9" s="5"/>
+      <c r="S9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="3">
         <v>6390.9589999999989</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6251.2589999999991</v>
       </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3">
+      <c r="V9" s="3"/>
+      <c r="W9" s="3">
         <v>130</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1831</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1486.6849999999999</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>370.58199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="22"/>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="22"/>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="L10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>274</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="22"/>
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="22"/>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="L11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>277</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="22"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="22"/>
       <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="L12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>171</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="22"/>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="22"/>
       <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="L13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>300</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>67</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>0.223</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="22"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="22"/>
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="L14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>296</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>71</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>0.24</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="22"/>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="22"/>
       <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="L15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>253</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1523,42 +1572,44 @@
       <c r="F16" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>3279</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>320</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1569,7 +1620,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,92 +1633,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>45658</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="24">
         <v>3964.7119659550103</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="24">
         <v>3294.4704682223146</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="24">
         <v>223.82786981172811</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="24">
         <v>189.59343497838174</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="24">
         <v>1799.0920991478331</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="24">
         <v>390.512819908057</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f t="shared" ref="H3:H14" si="0">B3+D3+F3</f>
         <v>5987.6319349145715</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <f t="shared" ref="I3:I14" si="1">C3+E3+G3</f>
         <v>3874.576723108753</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <f t="shared" ref="J3" si="2">ABS(H3-I3)</f>
         <v>2113.0552118058185</v>
       </c>
@@ -1676,50 +1727,50 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>45689</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="19">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <f t="shared" ref="J4:J14" si="3">ABS(H4-I4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>45717</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="19">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1728,24 +1779,24 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>45748</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="19">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="17">
         <f t="shared" ref="H6:H8" si="4">B6+D6+F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <f t="shared" ref="I6:I8" si="5">C6+E6+G6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <f t="shared" ref="J6" si="6">ABS(H6-I6)</f>
         <v>0</v>
       </c>
@@ -1754,36 +1805,36 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>45778</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="24">
         <v>3965.5414834426306</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="24">
         <v>3232.7624871043358</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="24">
         <v>228.52846890824256</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="24">
         <v>169.92546663595715</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="24">
         <v>1803.3318551956697</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="24">
         <v>332.60501623843197</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f t="shared" si="4"/>
         <v>5997.4018075465428</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <f t="shared" si="5"/>
         <v>3735.2929699787246</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <f t="shared" ref="J7" si="7">ABS(H7-I7)</f>
         <v>2262.1088375678182</v>
       </c>
@@ -1792,36 +1843,36 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>45809</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="24">
         <v>3965.5414834426306</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="24">
         <v>3247.6868306739998</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="24">
         <v>228.52846890824256</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="24">
         <v>205.44675495108569</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="24">
         <v>1803.3318551956697</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="24">
         <v>346.75275369474275</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f t="shared" si="4"/>
         <v>5997.4018075465428</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <f t="shared" si="5"/>
         <v>3799.886339319828</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <f t="shared" si="3"/>
         <v>2197.5154682267148</v>
       </c>
@@ -1830,24 +1881,24 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>45839</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="19">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1856,24 +1907,24 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>45870</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="19">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1882,24 +1933,24 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>45901</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="19">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1908,24 +1959,24 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>45931</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="19">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1934,24 +1985,24 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>45962</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="19">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1960,24 +2011,24 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>45992</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="19">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1986,24 +2037,24 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>46023</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="19">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="17">
         <f t="shared" ref="H15:H17" si="8">B15+D15+F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <f t="shared" ref="I15:I17" si="9">C15+E15+G15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <f t="shared" ref="J15:J17" si="10">ABS(H15-I15)</f>
         <v>0</v>
       </c>
@@ -2012,24 +2063,24 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>46054</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="19">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2038,24 +2089,24 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>46082</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="19">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2065,10 +2116,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2089,10 +2140,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2113,10 +2164,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2137,10 +2188,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2161,10 +2212,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2185,10 +2236,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2209,10 +2260,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2258,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB31606-611C-43AE-BE22-15419585C40A}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2287,61 +2338,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>40</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>40</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2349,30 +2400,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="32"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="3">
         <v>1</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="32"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="3">
         <v>1</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="32"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="3">
         <v>1</v>
       </c>
@@ -2384,30 +2435,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="32"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="32"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="3">
         <v>2</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="32"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="3">
         <v>2</v>
       </c>
@@ -2419,30 +2470,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>353</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="32"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="32"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="3">
         <v>3</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="32"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3">
         <v>3</v>
       </c>
@@ -2454,30 +2505,30 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3">
         <v>4</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="32"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="3">
         <v>4</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="32"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="3">
         <v>4</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="32"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="3">
         <v>4</v>
       </c>
@@ -2489,30 +2540,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>130.30000000000001</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="32"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="3">
         <v>5</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="32"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="3">
         <v>5</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="32"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="3">
         <v>5</v>
       </c>
@@ -2524,30 +2575,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>332.8</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="3">
         <v>6</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="32"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="3">
         <v>6</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="3">
         <v>6</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="32"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="3">
         <v>6</v>
       </c>
@@ -2559,152 +2610,152 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3">
         <v>588.40000000000009</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3">
         <v>7</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="32"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="8">
+        <v>80</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="7">
         <v>30</v>
       </c>
-      <c r="P8" s="32"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="8">
+        <v>91</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7">
         <v>147.10000000000002</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="3">
         <v>8</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="32"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="3">
         <v>8</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="L9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>190.5</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7">
         <v>300</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>50</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="L10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7">
+        <v>181.4</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="8">
-        <v>181.4</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G11" s="3">
         <v>644.1</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="H11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D12" s="32"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="8">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="7">
         <v>1796.2</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="H12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="D14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
@@ -2749,87 +2800,87 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>0.125</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>0.16666666666666699</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>0.20833333333333334</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="9">
         <v>0.25</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="9">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="9">
         <v>0.375</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="9">
         <v>0.41666666666666602</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="9">
         <v>0.45833333333333298</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="9">
         <v>0.54166666666666596</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="9">
         <v>0.58333333333333304</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="9">
         <v>0.625</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="9">
         <v>0.66666666666666596</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="9">
         <v>0.70833333333333304</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="9">
         <v>0.75</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="9">
         <v>0.79166666666666596</v>
       </c>
-      <c r="X1" s="10">
+      <c r="X1" s="9">
         <v>0.83333333333333304</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="9">
         <v>0.875</v>
       </c>
-      <c r="Z1" s="10">
+      <c r="Z1" s="9">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AA1" s="10">
+      <c r="AA1" s="9">
         <v>0.95833333333333337</v>
       </c>
-      <c r="AB1" s="15">
+      <c r="AB1" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2838,12 +2889,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="13">
+        <v>72</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="12">
         <v>45841</v>
       </c>
       <c r="E2" s="1"/>
@@ -2854,29 +2905,29 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -2890,9 +2941,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2923,12 +2974,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2959,19 +3010,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2988,15 +3039,15 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3023,12 +3074,12 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3055,12 +3106,12 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3087,9 +3138,9 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3116,12 +3167,12 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3150,87 +3201,87 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>0.125</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>0.16666666666666699</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>0.20833333333333334</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="9">
         <v>0.25</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="9">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="9">
         <v>0.375</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="9">
         <v>0.41666666666666602</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="9">
         <v>0.45833333333333298</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="9">
         <v>0.54166666666666596</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="9">
         <v>0.58333333333333304</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="9">
         <v>0.625</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="9">
         <v>0.66666666666666596</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="9">
         <v>0.70833333333333304</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="9">
         <v>0.75</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="9">
         <v>0.79166666666666596</v>
       </c>
-      <c r="X1" s="10">
+      <c r="X1" s="9">
         <v>0.83333333333333304</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="9">
         <v>0.875</v>
       </c>
-      <c r="Z1" s="10">
+      <c r="Z1" s="9">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AA1" s="10">
+      <c r="AA1" s="9">
         <v>0.95833333333333337</v>
       </c>
-      <c r="AB1" s="15">
+      <c r="AB1" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3239,12 +3290,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="14">
+        <v>84</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="13">
         <v>45703</v>
       </c>
       <c r="E2" s="1"/>
@@ -3254,7 +3305,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -3279,9 +3330,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="14">
+        <v>85</v>
+      </c>
+      <c r="D3" s="13">
         <v>45704</v>
       </c>
       <c r="E3" s="1"/>
@@ -3291,7 +3342,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3316,12 +3367,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="14">
+        <v>86</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="13">
         <v>45705</v>
       </c>
       <c r="E4" s="1"/>
@@ -3331,7 +3382,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3356,19 +3407,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3385,19 +3436,19 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3424,12 +3475,12 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3456,12 +3507,12 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3488,9 +3539,9 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>

--- a/data/My_Proceeded_Data.xlsx
+++ b/data/My_Proceeded_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calories-tracker-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A3C62-C9C0-44FF-B4B9-55CBB1868418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE57F60-3461-4D28-B27A-D94F9CFCD615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E80BDF61-66E5-4A1D-A588-AEAA524A82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
   <si>
     <t>Month</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Thuyền thúng</t>
   </si>
   <si>
-    <t>80% of the plastic bottles go to Thanh Đông vegetable garden, 10% to The Field restaurant, and the remaining 10% are taken home by visitors</t>
-  </si>
-  <si>
     <t>Name of Tour Guide</t>
   </si>
   <si>
@@ -329,6 +326,12 @@
   </si>
   <si>
     <t>Food waste (Kg/month)</t>
+  </si>
+  <si>
+    <t>85% of the plastic bottles go to Thanh Đông vegetable garden, 10% to The Field restaurant, and the remaining 5% are taken home by visitors</t>
+  </si>
+  <si>
+    <t>Trải nghiệm 6</t>
   </si>
 </sst>
 </file>
@@ -920,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14FA5A7-E2B7-4031-979E-EA1B510988C7}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>0</v>
@@ -1072,7 +1075,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>52</v>
@@ -1620,7 +1623,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1868,7 @@
         <v>346.75275369474275</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5997.4018075465428</v>
       </c>
       <c r="I8" s="17">
@@ -2307,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB31606-611C-43AE-BE22-15419585C40A}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,7 +2339,7 @@
     <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -2394,8 +2397,17 @@
       <c r="S1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2429,8 +2441,13 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2464,8 +2481,13 @@
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U3" s="3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2499,8 +2521,13 @@
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4" s="3">
+        <v>3</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2534,8 +2561,13 @@
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U5" s="3">
+        <v>4</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2569,8 +2601,13 @@
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6" s="3">
+        <v>5</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2604,8 +2641,13 @@
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U7" s="3">
+        <v>6</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2639,7 +2681,7 @@
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>50</v>
@@ -2647,8 +2689,17 @@
       <c r="S8" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -2673,7 +2724,7 @@
       <c r="L9" s="35"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2706,7 +2757,7 @@
       <c r="L10" s="35"/>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -2730,7 +2781,7 @@
       <c r="L11" s="35"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D12" s="35"/>
       <c r="E12" s="3" t="s">
         <v>45</v>
@@ -2745,19 +2796,19 @@
       <c r="L12" s="35"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13" s="35"/>
       <c r="H13" s="35"/>
       <c r="L13" s="35"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="35"/>
       <c r="H14" s="35"/>
       <c r="L14" s="35"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
     </row>
   </sheetData>
@@ -2775,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F9EA3-B910-41F2-9F51-C92E310F96CA}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,7 +2857,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>77</v>
@@ -2892,7 +2943,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="12">
         <v>45841</v>
@@ -2905,7 +2956,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>49</v>
@@ -3013,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="1"/>
@@ -3038,9 +3089,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -3077,7 +3126,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="1"/>
@@ -3109,7 +3158,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="1"/>
@@ -3184,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D96FA9-FE8A-4589-9A3C-8E16C57A76C1}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3207,7 +3256,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>77</v>
@@ -3290,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="13">
         <v>45703</v>
@@ -3330,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="13">
         <v>45704</v>
@@ -3367,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>79</v>
@@ -3407,7 +3456,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>78</v>
@@ -3445,7 +3494,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="13"/>
@@ -3478,7 +3527,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="1"/>
@@ -3510,7 +3559,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="1"/>
